--- a/src/test/resources/UtilityData/TestData.xlsx
+++ b/src/test/resources/UtilityData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\AmazonAutomation\src\test\resources\UtilityData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CF34AA-C1F7-4D54-A621-AFECE48A2BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D638F0B4-6C87-4596-B413-76886940BE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>//input[@id='otp']</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>//span[text()='Sign in']</t>
+  </si>
+  <si>
+    <t>//button[text()='Continue shopping']</t>
+  </si>
+  <si>
+    <t>btnContinueShop</t>
   </si>
 </sst>
 </file>
@@ -432,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D9:D10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,6 +534,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
